--- a/doc/프로젝트계획서_v2.0.xlsx
+++ b/doc/프로젝트계획서_v2.0.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcd_\Documents\GitHub\KH_semi5\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2AE2F1-949B-4080-8BDB-12FC816F7A15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="계획표" sheetId="1" r:id="rId4"/>
+    <sheet name="계획표" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -116,24 +125,6 @@
   </si>
   <si>
     <t>구현기능</t>
-  </si>
-  <si>
-    <t>1. 메인 페이지 
-   - 상단 메뉴 : 메인, 뉴스, 선별진료소, 방명록, 로그인/로그아웃, 마이페이지
-   - 확진자 현황, 지열별 거리두기 단계 현황
-2. 뉴스 페이지
-   - 게시판(보도자료) 
-3. 선별 진료소 페이지
-   - 지도(선별진료소 위치 마커표시)
-4. 방명록 페이지
-   - 게시판(방명록 게시물)
-5. 회원가입 /로그인 페이지
-  - 아이디, 비밀번호 입력
-  - 계정이 없을 경우 회원가입(아이디, 비밀번호, 생년월일, 지역, 닉네임 정보 받기)
-6. 마이 페이지
-- 정보변경 : 비밀번호, 지역, 닉네임 변경가능 
-- 본인이 작성한 방명록 삭제 가능
-- 관리자일 경우 모든 글 삭제 가능</t>
   </si>
   <si>
     <t>설계의 주안점</t>
@@ -159,34 +150,75 @@
 Framework : BootStrap
 Library : jstl, jdbc, lombok, standard, cos, jQuery, tui-chart</t>
   </si>
+  <si>
+    <t>1. 메인 페이지 
+   - 상단 메뉴 : 메인, 뉴스, 선별진료소, 방명록, 로그인/로그아웃, 마이페이지
+   - 확진자 현황, 지역별 거리두기 단계 현황
+2. 뉴스
+   - 게시판(보도자료) 
+   - 관리자만 등록/수정/삭제 가능
+3. 주변 병원/선별 진료소
+   - 하단에 지도와 함께 표시
+4. 정보공유게시판
+   - 지역별로 말머리 기능
+5. 회원가입 /로그인 페이지
+  - 아이디, 비밀번호 입력
+  - 계정이 없을 경우 회원가입(아이디, 비밀번호, 생년월일, 지역, 닉네임 정보 받기)
+  - 본인인증 후 아이디 찾기, 비밀번호 재설정
+6. 마이 페이지
+- 정보변경 : 아이디 외 변경 가능
+- 본인이 작성한 글/댓글 삭제 가능
+- 관리자일 경우 모든 글/댓글 삭제 가능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,7 +228,13 @@
     </fill>
   </fills>
   <borders count="26">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -210,157 +248,188 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="medium">
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -370,6 +439,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -381,8 +451,11 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -392,6 +465,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -400,6 +474,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -414,6 +491,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -428,6 +506,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -436,9 +515,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -450,6 +531,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -461,8 +544,11 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -472,134 +558,140 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -789,339 +881,341 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.13"/>
-    <col customWidth="1" min="2" max="2" width="19.5"/>
-    <col customWidth="1" min="3" max="10" width="16.38"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1"/>
-    <row r="2" ht="21.75" customHeight="1">
+    <row r="1" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="2" spans="2:10" ht="21.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="15"/>
     </row>
-    <row r="3" ht="21.75" customHeight="1">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:10" ht="21.75" customHeight="1">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:10" ht="21.75" customHeight="1">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1"/>
-    <row r="6" ht="34.5" customHeight="1">
-      <c r="B6" s="13" t="s">
+    <row r="5" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="6" spans="2:10" ht="34.5" customHeight="1">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+    <row r="7" spans="2:10" ht="16.5" customHeight="1">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="15"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
+    <row r="9" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B9" s="28"/>
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25">
-        <v>44274.0</v>
-      </c>
-      <c r="D10" s="25">
-        <v>44281.0</v>
-      </c>
-      <c r="E10" s="26">
-        <v>44282.0</v>
-      </c>
-      <c r="F10" s="26">
-        <v>44295.0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>44296.0</v>
-      </c>
-      <c r="H10" s="26">
-        <v>44316.0</v>
-      </c>
-      <c r="I10" s="26">
-        <v>44317.0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>44318.0</v>
+    <row r="10" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B10" s="29"/>
+      <c r="C10" s="8">
+        <v>44274</v>
+      </c>
+      <c r="D10" s="8">
+        <v>44281</v>
+      </c>
+      <c r="E10" s="9">
+        <v>44282</v>
+      </c>
+      <c r="F10" s="9">
+        <v>44295</v>
+      </c>
+      <c r="G10" s="9">
+        <v>44296</v>
+      </c>
+      <c r="H10" s="9">
+        <v>44316</v>
+      </c>
+      <c r="I10" s="9">
+        <v>44317</v>
+      </c>
+      <c r="J10" s="10">
+        <v>44318</v>
       </c>
     </row>
-    <row r="11" ht="134.25" customHeight="1">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:10" ht="134.25" customHeight="1">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="23"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="12" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="13" spans="2:10" ht="16.5" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="15"/>
     </row>
-    <row r="14" ht="74.25" customHeight="1">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="2:10" ht="74.25" customHeight="1">
+      <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
     </row>
-    <row r="15" ht="74.25" customHeight="1">
-      <c r="B15" s="31" t="s">
+    <row r="15" spans="2:10" ht="74.25" customHeight="1">
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
     </row>
-    <row r="16" ht="74.25" customHeight="1">
-      <c r="B16" s="31" t="s">
+    <row r="16" spans="2:10" ht="74.25" customHeight="1">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
-    <row r="17" ht="74.25" customHeight="1">
-      <c r="B17" s="31" t="s">
+    <row r="17" spans="2:10" ht="74.25" customHeight="1">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
-    <row r="18" ht="74.25" customHeight="1">
-      <c r="B18" s="33" t="s">
+    <row r="18" spans="2:10" ht="74.25" customHeight="1">
+      <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="78.75" customHeight="1">
+    <row r="19" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="20" spans="2:10" ht="78.75" customHeight="1">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="15"/>
     </row>
-    <row r="21" ht="228.0" customHeight="1">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:10" ht="335.25" customHeight="1">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" ht="122.25" customHeight="1">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+      <c r="C22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
     </row>
-    <row r="22" ht="122.25" customHeight="1">
-      <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="32" t="s">
+    <row r="23" spans="2:10" ht="187.5" customHeight="1">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+      <c r="C23" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
     </row>
-    <row r="23" ht="122.25" customHeight="1">
-      <c r="B23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="24" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="25" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="26" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="27" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="28" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="29" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="30" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="31" spans="2:10" ht="16.5" customHeight="1"/>
+    <row r="32" spans="2:10" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -2092,22 +2186,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -2115,10 +2203,15 @@
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C15:J15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.6998611092567444" right="0.6998611092567444" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>